--- a/plan/test/service/単体テスト仕様書-OrderService.xlsx
+++ b/plan/test/service/単体テスト仕様書-OrderService.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC184143-A2F7-48D4-9552-B61294935412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F023EFD8-3716-456B-85DD-71727899D66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DepartmentDAO" sheetId="166" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>作成者</t>
   </si>
@@ -335,6 +335,26 @@
       <t>イチラン</t>
     </rPh>
     <rPh sb="19" eb="20">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>getStockByProductId(productId:Integer):ProductStock</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品在庫テーブルから指定した商品(水性ボールペン(黒))のレコードが得られること</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンザイコ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>スイセイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
       <t>エ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -555,9 +575,39 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -566,36 +616,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -947,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="67" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:G6"/>
+      <selection activeCell="H12" sqref="H12:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -968,25 +988,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1001,23 +1021,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1055,20 +1075,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="22" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="24"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="26"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1078,10 +1098,10 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="21" t="s">
+      <c r="P4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="21"/>
+      <c r="Q4" s="16"/>
     </row>
     <row r="5" spans="1:17" ht="196" customHeight="1">
       <c r="A5" s="11">
@@ -1090,25 +1110,25 @@
       <c r="B5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="25" t="s">
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="27"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
     </row>
     <row r="6" spans="1:17" ht="60" customHeight="1">
       <c r="A6" s="11">
@@ -1117,25 +1137,25 @@
       <c r="B6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="25" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="27"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
     </row>
     <row r="7" spans="1:17" ht="100.5" customHeight="1">
       <c r="A7" s="11">
@@ -1144,20 +1164,20 @@
       <c r="B7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="25" t="s">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="27"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="23"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
@@ -1171,20 +1191,20 @@
       <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="25" t="s">
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
@@ -1198,86 +1218,131 @@
       <c r="B9" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="19"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="29"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
     </row>
-    <row r="10" spans="1:17" ht="89.5" customHeight="1">
+    <row r="10" spans="1:17" ht="42" customHeight="1">
       <c r="A10" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="19"/>
+        <v>38</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
     </row>
-    <row r="11" spans="1:17" ht="42" customHeight="1">
+    <row r="11" spans="1:17" ht="89.5" customHeight="1">
       <c r="A11" s="11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="19"/>
+        <v>30</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="29"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+    </row>
+    <row r="12" spans="1:17" ht="42" customHeight="1">
+      <c r="A12" s="11">
+        <v>8</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="30">
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
@@ -1286,21 +1351,6 @@
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H8:L8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/test/service/単体テスト仕様書-OrderService.xlsx
+++ b/plan/test/service/単体テスト仕様書-OrderService.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\service\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F023EFD8-3716-456B-85DD-71727899D66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13893ECE-4011-4562-A7D5-A1B8DF9E1B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>作成者</t>
   </si>
@@ -356,6 +356,24 @@
     </rPh>
     <rPh sb="34" eb="35">
       <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高良</t>
+    <rPh sb="0" eb="2">
+      <t>タカラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未使用</t>
+    <rPh sb="0" eb="3">
+      <t>ミシヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -528,7 +546,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -575,14 +593,41 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -590,31 +635,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -969,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="67" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:L12"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -988,25 +1009,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1021,23 +1042,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1075,20 +1096,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="24" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="27"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1098,10 +1119,10 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="16"/>
+      <c r="Q4" s="24"/>
     </row>
     <row r="5" spans="1:17" ht="196" customHeight="1">
       <c r="A5" s="11">
@@ -1110,13 +1131,13 @@
       <c r="B5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="21" t="s">
         <v>23</v>
       </c>
@@ -1127,8 +1148,8 @@
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
     </row>
     <row r="6" spans="1:17" ht="60" customHeight="1">
       <c r="A6" s="11">
@@ -1137,13 +1158,13 @@
       <c r="B6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="21" t="s">
         <v>26</v>
       </c>
@@ -1154,8 +1175,10 @@
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
+      <c r="P6" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="1:17" ht="100.5" customHeight="1">
       <c r="A7" s="11">
@@ -1218,25 +1241,25 @@
       <c r="B9" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="27" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="29"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
     </row>
     <row r="10" spans="1:17" ht="42" customHeight="1">
       <c r="A10" s="11">
@@ -1245,13 +1268,13 @@
       <c r="B10" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="21" t="s">
         <v>39</v>
       </c>
@@ -1259,11 +1282,17 @@
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
       <c r="L10" s="23"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
+      <c r="M10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" s="30">
+        <v>45510</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
     </row>
     <row r="11" spans="1:17" ht="89.5" customHeight="1">
       <c r="A11" s="11">
@@ -1272,25 +1301,25 @@
       <c r="B11" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="27" t="s">
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="29"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
     </row>
     <row r="12" spans="1:17" ht="42" customHeight="1">
       <c r="A12" s="11">
@@ -1299,28 +1328,51 @@
       <c r="B12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="27" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" s="30">
+        <v>45510</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="P12:Q12"/>
@@ -1334,23 +1386,6 @@
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
